--- a/Lora - Projeto CM.xlsx
+++ b/Lora - Projeto CM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matilde Costa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matilde Costa\OneDrive - Universidade de Aveiro\MECT\1º Ano\1º Semestre\Comunicações Móveis\Prática\ProjetoCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8153D9F-D5BB-479D-8500-551D9D49C232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C9F1F0-8592-4B32-91FC-C10DCD443BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DETI_Indoor" sheetId="4" r:id="rId1"/>
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -201,6 +201,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1244,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1396,6 +1404,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1412,25 +1439,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1447,6 +1455,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,16 +1476,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20212,10 +20242,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29:Q33"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20232,40 +20262,40 @@
     <col min="16" max="16" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="120" t="s">
+      <c r="K2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="123" t="s">
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="124" t="s">
+      <c r="R2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="105" t="s">
+      <c r="S2" s="140" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -20309,12 +20339,12 @@
       <c r="P3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="106"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="142"/>
     </row>
-    <row r="4" spans="2:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="99" t="s">
+    <row r="4" spans="2:23" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="110" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="15">
@@ -20373,8 +20403,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
+    <row r="5" spans="2:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="111"/>
       <c r="C5" s="22">
         <v>100</v>
       </c>
@@ -20429,8 +20459,8 @@
         <v>1.2247448713915889</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="100"/>
+    <row r="6" spans="2:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="111"/>
       <c r="C6" s="22">
         <v>150</v>
       </c>
@@ -20485,8 +20515,8 @@
         <v>3.4928498393145961</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="100"/>
+    <row r="7" spans="2:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="111"/>
       <c r="C7" s="22">
         <v>200</v>
       </c>
@@ -20540,9 +20570,10 @@
         <f t="shared" si="3"/>
         <v>1.51657508881031</v>
       </c>
+      <c r="W7" s="146"/>
     </row>
-    <row r="8" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="100"/>
+    <row r="8" spans="2:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="111"/>
       <c r="C8" s="28">
         <v>250</v>
       </c>
@@ -20587,7 +20618,7 @@
         <f t="shared" si="0"/>
         <v>-46.6</v>
       </c>
-      <c r="Q8" s="117"/>
+      <c r="Q8" s="109"/>
       <c r="R8" s="21">
         <f t="shared" si="2"/>
         <v>4.6380146614690805</v>
@@ -20597,8 +20628,8 @@
         <v>3.1304951684997055</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="100"/>
+    <row r="9" spans="2:23" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="111"/>
       <c r="C9" s="15">
         <v>50</v>
       </c>
@@ -20655,8 +20686,8 @@
         <v>0.89442719099991586</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="100"/>
+    <row r="10" spans="2:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B10" s="111"/>
       <c r="C10" s="22">
         <v>100</v>
       </c>
@@ -20711,8 +20742,8 @@
         <v>0.83666002653407556</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="100"/>
+    <row r="11" spans="2:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B11" s="111"/>
       <c r="C11" s="22">
         <v>150</v>
       </c>
@@ -20767,8 +20798,8 @@
         <v>1.5811388300841898</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
+    <row r="12" spans="2:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B12" s="111"/>
       <c r="C12" s="22">
         <v>200</v>
       </c>
@@ -20823,8 +20854,8 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="100"/>
+    <row r="13" spans="2:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="111"/>
       <c r="C13" s="28">
         <v>250</v>
       </c>
@@ -20869,7 +20900,7 @@
         <f t="shared" si="0"/>
         <v>-43</v>
       </c>
-      <c r="Q13" s="117"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="21">
         <f t="shared" si="2"/>
         <v>2.9233164043600053</v>
@@ -20879,8 +20910,8 @@
         <v>1.2247448713915889</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="100"/>
+    <row r="14" spans="2:23" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="111"/>
       <c r="C14" s="15">
         <v>50</v>
       </c>
@@ -20937,8 +20968,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="100"/>
+    <row r="15" spans="2:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B15" s="111"/>
       <c r="C15" s="22">
         <v>100</v>
       </c>
@@ -20993,8 +21024,8 @@
         <v>0.89442719099991586</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
+    <row r="16" spans="2:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="111"/>
       <c r="C16" s="22">
         <v>150</v>
       </c>
@@ -21050,7 +21081,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="100"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="22">
         <v>200</v>
       </c>
@@ -21106,7 +21137,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="101"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="28">
         <v>250</v>
       </c>
@@ -21151,7 +21182,7 @@
         <f t="shared" si="0"/>
         <v>-43.4</v>
       </c>
-      <c r="Q18" s="117"/>
+      <c r="Q18" s="109"/>
       <c r="R18" s="21">
         <f t="shared" si="2"/>
         <v>4.9592861525626821</v>
@@ -21162,7 +21193,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="110" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="15">
@@ -21222,7 +21253,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="100"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="22">
         <v>100</v>
       </c>
@@ -21278,7 +21309,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="100"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="22">
         <v>150</v>
       </c>
@@ -21334,7 +21365,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="100"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="22">
         <v>200</v>
       </c>
@@ -21390,7 +21421,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="100"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="28">
         <v>250</v>
       </c>
@@ -21435,7 +21466,7 @@
         <f t="shared" si="0"/>
         <v>-83.6</v>
       </c>
-      <c r="Q23" s="117"/>
+      <c r="Q23" s="109"/>
       <c r="R23" s="21">
         <f t="shared" si="2"/>
         <v>2.2611059240998892</v>
@@ -21446,7 +21477,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="100"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="15">
         <v>50</v>
       </c>
@@ -21504,7 +21535,7 @@
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B25" s="100"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="22">
         <v>100</v>
       </c>
@@ -21560,7 +21591,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B26" s="100"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="22">
         <v>150</v>
       </c>
@@ -21616,7 +21647,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B27" s="100"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="22">
         <v>200</v>
       </c>
@@ -21672,7 +21703,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="100"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="28">
         <v>250</v>
       </c>
@@ -21717,7 +21748,7 @@
         <f t="shared" si="0"/>
         <v>-56.4</v>
       </c>
-      <c r="Q28" s="117"/>
+      <c r="Q28" s="109"/>
       <c r="R28" s="21">
         <f t="shared" si="2"/>
         <v>2.7200016176465547</v>
@@ -21728,7 +21759,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="100"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="15">
         <v>50</v>
       </c>
@@ -21786,7 +21817,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B30" s="100"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="22">
         <v>100</v>
       </c>
@@ -21842,7 +21873,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B31" s="100"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="22">
         <v>150</v>
       </c>
@@ -21898,7 +21929,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B32" s="100"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="22">
         <v>200</v>
       </c>
@@ -21954,7 +21985,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="100"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="83">
         <v>250</v>
       </c>
@@ -22010,7 +22041,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="99" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="85">
@@ -22057,7 +22088,7 @@
         <f t="shared" si="0"/>
         <v>-85.8</v>
       </c>
-      <c r="Q34" s="112">
+      <c r="Q34" s="102">
         <v>12</v>
       </c>
       <c r="R34" s="21">
@@ -22070,7 +22101,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="110"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="22">
         <v>100</v>
       </c>
@@ -22115,7 +22146,7 @@
         <f t="shared" si="0"/>
         <v>-90</v>
       </c>
-      <c r="Q35" s="113"/>
+      <c r="Q35" s="103"/>
       <c r="R35" s="21">
         <f t="shared" si="2"/>
         <v>2.3915110913393796</v>
@@ -22126,7 +22157,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B36" s="110"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="22">
         <v>150</v>
       </c>
@@ -22171,7 +22202,7 @@
         <f t="shared" si="0"/>
         <v>-91.6</v>
       </c>
-      <c r="Q36" s="113"/>
+      <c r="Q36" s="103"/>
       <c r="R36" s="21">
         <f t="shared" si="2"/>
         <v>3.7565666771670205</v>
@@ -22182,7 +22213,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B37" s="110"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="22">
         <v>200</v>
       </c>
@@ -22227,7 +22258,7 @@
         <f t="shared" si="0"/>
         <v>-88.4</v>
       </c>
-      <c r="Q37" s="113"/>
+      <c r="Q37" s="103"/>
       <c r="R37" s="21">
         <f t="shared" si="2"/>
         <v>3.4109930372251869</v>
@@ -22238,7 +22269,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="110"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="28">
         <v>250</v>
       </c>
@@ -22283,7 +22314,7 @@
         <f t="shared" si="0"/>
         <v>-80.599999999999994</v>
       </c>
-      <c r="Q38" s="114"/>
+      <c r="Q38" s="104"/>
       <c r="R38" s="21">
         <f t="shared" si="2"/>
         <v>3.419137318096515</v>
@@ -22294,10 +22325,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="82">
-        <v>45144</v>
-      </c>
-      <c r="B39" s="110"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="15">
         <v>50</v>
       </c>
@@ -22342,7 +22371,7 @@
         <f t="shared" si="0"/>
         <v>-77.2</v>
       </c>
-      <c r="Q39" s="115">
+      <c r="Q39" s="105">
         <v>10</v>
       </c>
       <c r="R39" s="21">
@@ -22355,7 +22384,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="110"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="22">
         <v>100</v>
       </c>
@@ -22400,7 +22429,7 @@
         <f t="shared" si="0"/>
         <v>-78.2</v>
       </c>
-      <c r="Q40" s="113"/>
+      <c r="Q40" s="103"/>
       <c r="R40" s="21">
         <f t="shared" si="2"/>
         <v>4.2150382323295705</v>
@@ -22411,7 +22440,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="110"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="22">
         <v>150</v>
       </c>
@@ -22456,7 +22485,7 @@
         <f t="shared" si="0"/>
         <v>-77.8</v>
       </c>
-      <c r="Q41" s="113"/>
+      <c r="Q41" s="103"/>
       <c r="R41" s="21">
         <f t="shared" si="2"/>
         <v>3.2937270985920626</v>
@@ -22467,7 +22496,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="110"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="22">
         <v>200</v>
       </c>
@@ -22512,7 +22541,7 @@
         <f t="shared" si="0"/>
         <v>-77.599999999999994</v>
       </c>
-      <c r="Q42" s="113"/>
+      <c r="Q42" s="103"/>
       <c r="R42" s="21">
         <f t="shared" si="2"/>
         <v>4.486504786579439</v>
@@ -22523,7 +22552,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="110"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="28">
         <v>250</v>
       </c>
@@ -22568,7 +22597,7 @@
         <f t="shared" si="0"/>
         <v>-79.599999999999994</v>
       </c>
-      <c r="Q43" s="114"/>
+      <c r="Q43" s="104"/>
       <c r="R43" s="21">
         <f t="shared" si="2"/>
         <v>3.9294855261216721</v>
@@ -22579,7 +22608,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="110"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="15">
         <v>50</v>
       </c>
@@ -22624,7 +22653,7 @@
         <f t="shared" si="0"/>
         <v>-85.4</v>
       </c>
-      <c r="Q44" s="115">
+      <c r="Q44" s="105">
         <v>8</v>
       </c>
       <c r="R44" s="21">
@@ -22637,7 +22666,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="110"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="22">
         <v>100</v>
       </c>
@@ -22682,7 +22711,7 @@
         <f t="shared" si="0"/>
         <v>-84.6</v>
       </c>
-      <c r="Q45" s="113"/>
+      <c r="Q45" s="103"/>
       <c r="R45" s="21">
         <f t="shared" si="2"/>
         <v>3.5108428207483469</v>
@@ -22693,7 +22722,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="110"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="22">
         <v>150</v>
       </c>
@@ -22738,7 +22767,7 @@
         <f t="shared" si="0"/>
         <v>-87.4</v>
       </c>
-      <c r="Q46" s="113"/>
+      <c r="Q46" s="103"/>
       <c r="R46" s="21">
         <f t="shared" si="2"/>
         <v>3.1069014092822744</v>
@@ -22749,7 +22778,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="110"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="22">
         <v>200</v>
       </c>
@@ -22794,7 +22823,7 @@
         <f t="shared" si="0"/>
         <v>-89.8</v>
       </c>
-      <c r="Q47" s="113"/>
+      <c r="Q47" s="103"/>
       <c r="R47" s="21">
         <f t="shared" si="2"/>
         <v>3.9738354224854571</v>
@@ -22805,7 +22834,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="111"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="92">
         <v>250</v>
       </c>
@@ -22850,7 +22879,7 @@
         <f t="shared" si="0"/>
         <v>-90.6</v>
       </c>
-      <c r="Q48" s="116"/>
+      <c r="Q48" s="106"/>
       <c r="R48" s="21">
         <f t="shared" si="2"/>
         <v>2.7271719628582178</v>
@@ -23399,14 +23428,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B34:B48"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="Q39:Q43"/>
-    <mergeCell ref="Q44:Q48"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="B4:B18"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="B19:B33"/>
@@ -23417,6 +23438,14 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="Q4:Q8"/>
     <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="B34:B48"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="Q39:Q43"/>
+    <mergeCell ref="Q44:Q48"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="B4:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23462,14 +23491,14 @@
     <row r="4" spans="3:33" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
       <c r="K4" s="123" t="s">
         <v>1</v>
       </c>
@@ -23484,7 +23513,7 @@
       <c r="R4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="138" t="s">
+      <c r="S4" s="126" t="s">
         <v>4</v>
       </c>
       <c r="V4" t="s">
@@ -23539,7 +23568,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="108"/>
-      <c r="S5" s="117"/>
+      <c r="S5" s="109"/>
       <c r="T5" t="s">
         <v>5</v>
       </c>
@@ -23569,7 +23598,7 @@
       </c>
     </row>
     <row r="6" spans="3:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="99">
+      <c r="C6" s="110">
         <v>500</v>
       </c>
       <c r="D6" s="15">
@@ -23660,7 +23689,7 @@
       </c>
     </row>
     <row r="7" spans="3:33" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C7" s="100"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="22">
         <v>100</v>
       </c>
@@ -23747,7 +23776,7 @@
       </c>
     </row>
     <row r="8" spans="3:33" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C8" s="100"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="22">
         <v>150</v>
       </c>
@@ -23834,7 +23863,7 @@
       </c>
     </row>
     <row r="9" spans="3:33" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C9" s="100"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="22">
         <v>200</v>
       </c>
@@ -23921,7 +23950,7 @@
       </c>
     </row>
     <row r="10" spans="3:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="100"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="28">
         <v>250</v>
       </c>
@@ -23966,7 +23995,7 @@
         <f t="shared" si="1"/>
         <v>-124.8</v>
       </c>
-      <c r="R10" s="117"/>
+      <c r="R10" s="109"/>
       <c r="S10" s="21">
         <f t="shared" si="2"/>
         <v>0.74891254496083948</v>
@@ -24008,7 +24037,7 @@
       </c>
     </row>
     <row r="11" spans="3:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="100"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="15">
         <v>50</v>
       </c>
@@ -24097,7 +24126,7 @@
       </c>
     </row>
     <row r="12" spans="3:33" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C12" s="100"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="22">
         <v>100</v>
       </c>
@@ -24184,7 +24213,7 @@
       </c>
     </row>
     <row r="13" spans="3:33" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C13" s="100"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="22">
         <v>150</v>
       </c>
@@ -24271,7 +24300,7 @@
       </c>
     </row>
     <row r="14" spans="3:33" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C14" s="100"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="22">
         <v>200</v>
       </c>
@@ -24358,7 +24387,7 @@
       </c>
     </row>
     <row r="15" spans="3:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="100"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="28">
         <v>250</v>
       </c>
@@ -24403,7 +24432,7 @@
         <f t="shared" si="1"/>
         <v>-125.2</v>
       </c>
-      <c r="R15" s="117"/>
+      <c r="R15" s="109"/>
       <c r="S15" s="21">
         <f t="shared" si="2"/>
         <v>2.6967511379435796</v>
@@ -24445,7 +24474,7 @@
       </c>
     </row>
     <row r="16" spans="3:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="100"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="35">
         <v>50</v>
       </c>
@@ -24534,7 +24563,7 @@
       </c>
     </row>
     <row r="17" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C17" s="100"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="35">
         <v>100</v>
       </c>
@@ -24621,7 +24650,7 @@
       </c>
     </row>
     <row r="18" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C18" s="100"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="35">
         <v>150</v>
       </c>
@@ -24708,7 +24737,7 @@
       </c>
     </row>
     <row r="19" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C19" s="100"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="35">
         <v>200</v>
       </c>
@@ -24795,7 +24824,7 @@
       </c>
     </row>
     <row r="20" spans="1:40" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="101"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="36">
         <v>250</v>
       </c>
@@ -24840,7 +24869,7 @@
         <f t="shared" si="1"/>
         <v>-121.6</v>
       </c>
-      <c r="R20" s="117"/>
+      <c r="R20" s="109"/>
       <c r="S20" s="21">
         <f t="shared" si="2"/>
         <v>1.3538086766600499</v>
@@ -24882,7 +24911,7 @@
       </c>
     </row>
     <row r="21" spans="1:40" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="99">
+      <c r="C21" s="110">
         <v>1000</v>
       </c>
       <c r="D21" s="15">
@@ -24973,7 +25002,7 @@
       </c>
     </row>
     <row r="22" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C22" s="100"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="22">
         <v>100</v>
       </c>
@@ -25060,7 +25089,7 @@
       </c>
     </row>
     <row r="23" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C23" s="100"/>
+      <c r="C23" s="111"/>
       <c r="D23" s="22">
         <v>150</v>
       </c>
@@ -25147,7 +25176,7 @@
       </c>
     </row>
     <row r="24" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C24" s="100"/>
+      <c r="C24" s="111"/>
       <c r="D24" s="22">
         <v>200</v>
       </c>
@@ -25234,7 +25263,7 @@
       </c>
     </row>
     <row r="25" spans="1:40" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="100"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="28">
         <v>250</v>
       </c>
@@ -25279,7 +25308,7 @@
         <f t="shared" si="1"/>
         <v>-131.19999999999999</v>
       </c>
-      <c r="R25" s="117"/>
+      <c r="R25" s="109"/>
       <c r="S25" s="21">
         <f t="shared" si="2"/>
         <v>3.9508602480979449</v>
@@ -25323,7 +25352,7 @@
     <row r="26" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="100"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="47">
         <v>50</v>
       </c>
@@ -25416,7 +25445,7 @@
     <row r="27" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="100"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="51">
         <v>100</v>
       </c>
@@ -25507,7 +25536,7 @@
     <row r="28" spans="1:40" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="100"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="51">
         <v>150</v>
       </c>
@@ -25598,7 +25627,7 @@
     <row r="29" spans="1:40" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="100"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="51">
         <v>200</v>
       </c>
@@ -25690,7 +25719,7 @@
     <row r="30" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="101"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="55">
         <v>250</v>
       </c>
@@ -25735,7 +25764,7 @@
         <f t="shared" si="1"/>
         <v>-130</v>
       </c>
-      <c r="R30" s="117"/>
+      <c r="R30" s="109"/>
       <c r="S30" s="21">
         <f t="shared" si="2"/>
         <v>2.0254579729043396</v>
@@ -25782,7 +25811,7 @@
     <row r="31" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" s="59"/>
-      <c r="C31" s="133">
+      <c r="C31" s="127">
         <v>1500</v>
       </c>
       <c r="D31" s="51">
@@ -25829,7 +25858,7 @@
         <f t="shared" si="1"/>
         <v>-132.80000000000001</v>
       </c>
-      <c r="R31" s="136">
+      <c r="R31" s="130">
         <v>12</v>
       </c>
       <c r="S31" s="21">
@@ -25878,7 +25907,7 @@
     <row r="32" spans="1:40" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" s="59"/>
-      <c r="C32" s="134"/>
+      <c r="C32" s="128"/>
       <c r="D32" s="51">
         <v>150</v>
       </c>
@@ -25970,7 +25999,7 @@
     <row r="33" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" s="59"/>
-      <c r="C33" s="134"/>
+      <c r="C33" s="128"/>
       <c r="D33" s="51">
         <v>200</v>
       </c>
@@ -26062,7 +26091,7 @@
     <row r="34" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="46"/>
       <c r="B34" s="59"/>
-      <c r="C34" s="135"/>
+      <c r="C34" s="129"/>
       <c r="D34" s="55">
         <v>250</v>
       </c>
@@ -26107,7 +26136,7 @@
         <f t="shared" si="1"/>
         <v>-132</v>
       </c>
-      <c r="R34" s="137"/>
+      <c r="R34" s="131"/>
       <c r="S34" s="21">
         <f t="shared" si="2"/>
         <v>1.2689247416611207</v>
@@ -26261,14 +26290,14 @@
     <row r="39" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="102" t="s">
+      <c r="E39" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="104"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="115"/>
       <c r="K39" s="123" t="s">
         <v>1</v>
       </c>
@@ -26286,7 +26315,7 @@
       <c r="S39" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="T39" s="105" t="s">
+      <c r="T39" s="116" t="s">
         <v>5</v>
       </c>
       <c r="V39" t="s">
@@ -26354,7 +26383,7 @@
       </c>
       <c r="R40" s="108"/>
       <c r="S40" s="125"/>
-      <c r="T40" s="106"/>
+      <c r="T40" s="117"/>
       <c r="V40" t="s">
         <v>26</v>
       </c>
@@ -26381,7 +26410,7 @@
       </c>
     </row>
     <row r="41" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C41" s="99">
+      <c r="C41" s="110">
         <v>250</v>
       </c>
       <c r="D41" s="15">
@@ -26481,7 +26510,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C42" s="100"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="22">
         <v>100</v>
       </c>
@@ -26577,7 +26606,7 @@
       </c>
     </row>
     <row r="43" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C43" s="100"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="22">
         <v>150</v>
       </c>
@@ -26674,7 +26703,7 @@
       <c r="AN43" s="80"/>
     </row>
     <row r="44" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C44" s="100"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="22">
         <v>200</v>
       </c>
@@ -26771,7 +26800,7 @@
       <c r="AN44" s="80"/>
     </row>
     <row r="45" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C45" s="100"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="28">
         <v>250</v>
       </c>
@@ -26816,7 +26845,7 @@
         <f t="shared" si="11"/>
         <v>-101.4</v>
       </c>
-      <c r="R45" s="117"/>
+      <c r="R45" s="109"/>
       <c r="S45" s="21">
         <f t="shared" si="20"/>
         <v>3.8278936766844986</v>
@@ -26868,7 +26897,7 @@
       <c r="AN45" s="80"/>
     </row>
     <row r="46" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C46" s="100"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="15">
         <v>50</v>
       </c>
@@ -26967,7 +26996,7 @@
       <c r="AN46" s="80"/>
     </row>
     <row r="47" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C47" s="100"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="22">
         <v>100</v>
       </c>
@@ -27064,7 +27093,7 @@
       <c r="AN47" s="80"/>
     </row>
     <row r="48" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C48" s="100"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="22">
         <v>150</v>
       </c>
@@ -27161,7 +27190,7 @@
       <c r="AN48" s="80"/>
     </row>
     <row r="49" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C49" s="100"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="22">
         <v>200</v>
       </c>
@@ -27258,7 +27287,7 @@
       <c r="AN49" s="80"/>
     </row>
     <row r="50" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C50" s="100"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="28">
         <v>250</v>
       </c>
@@ -27303,7 +27332,7 @@
         <f t="shared" si="11"/>
         <v>-109.2</v>
       </c>
-      <c r="R50" s="117"/>
+      <c r="R50" s="109"/>
       <c r="S50" s="21">
         <f t="shared" si="20"/>
         <v>4.2078789431256327</v>
@@ -27355,7 +27384,7 @@
       <c r="AN50" s="80"/>
     </row>
     <row r="51" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C51" s="100"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="15">
         <v>50</v>
       </c>
@@ -27454,7 +27483,7 @@
       <c r="AN51" s="80"/>
     </row>
     <row r="52" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C52" s="100"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="22">
         <v>100</v>
       </c>
@@ -27551,7 +27580,7 @@
       <c r="AN52" s="80"/>
     </row>
     <row r="53" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C53" s="100"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="22">
         <v>150</v>
       </c>
@@ -27648,7 +27677,7 @@
       <c r="AN53" s="80"/>
     </row>
     <row r="54" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C54" s="100"/>
+      <c r="C54" s="111"/>
       <c r="D54" s="22">
         <v>200</v>
       </c>
@@ -27745,7 +27774,7 @@
       <c r="AN54" s="80"/>
     </row>
     <row r="55" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C55" s="101"/>
+      <c r="C55" s="112"/>
       <c r="D55" s="28">
         <v>250</v>
       </c>
@@ -27790,7 +27819,7 @@
         <f t="shared" si="11"/>
         <v>-101</v>
       </c>
-      <c r="R55" s="117"/>
+      <c r="R55" s="109"/>
       <c r="S55" s="21">
         <f t="shared" si="20"/>
         <v>3.5381502377654703</v>
@@ -27842,7 +27871,7 @@
       <c r="AN55" s="80"/>
     </row>
     <row r="56" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C56" s="99">
+      <c r="C56" s="110">
         <v>500</v>
       </c>
       <c r="D56" s="15">
@@ -27943,7 +27972,7 @@
       <c r="AN56" s="80"/>
     </row>
     <row r="57" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C57" s="100"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="22">
         <v>100</v>
       </c>
@@ -28040,7 +28069,7 @@
       <c r="AN57" s="80"/>
     </row>
     <row r="58" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C58" s="100"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="22">
         <v>150</v>
       </c>
@@ -28136,7 +28165,7 @@
       </c>
     </row>
     <row r="59" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C59" s="100"/>
+      <c r="C59" s="111"/>
       <c r="D59" s="22">
         <v>200</v>
       </c>
@@ -28232,7 +28261,7 @@
       </c>
     </row>
     <row r="60" spans="3:40" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="100"/>
+      <c r="C60" s="111"/>
       <c r="D60" s="28">
         <v>250</v>
       </c>
@@ -28277,7 +28306,7 @@
         <f t="shared" si="11"/>
         <v>-126.6</v>
       </c>
-      <c r="R60" s="117"/>
+      <c r="R60" s="109"/>
       <c r="S60" s="21">
         <f t="shared" si="20"/>
         <v>4.3443791271017203</v>
@@ -28328,7 +28357,7 @@
       </c>
     </row>
     <row r="61" spans="3:40" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="100"/>
+      <c r="C61" s="111"/>
       <c r="D61" s="15">
         <v>50</v>
       </c>
@@ -28426,7 +28455,7 @@
       </c>
     </row>
     <row r="62" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C62" s="100"/>
+      <c r="C62" s="111"/>
       <c r="D62" s="22">
         <v>100</v>
       </c>
@@ -28522,7 +28551,7 @@
       </c>
     </row>
     <row r="63" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C63" s="100"/>
+      <c r="C63" s="111"/>
       <c r="D63" s="22">
         <v>150</v>
       </c>
@@ -28618,7 +28647,7 @@
       </c>
     </row>
     <row r="64" spans="3:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C64" s="100"/>
+      <c r="C64" s="111"/>
       <c r="D64" s="22">
         <v>200</v>
       </c>
@@ -28714,7 +28743,7 @@
       </c>
     </row>
     <row r="65" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="100"/>
+      <c r="C65" s="111"/>
       <c r="D65" s="28">
         <v>250</v>
       </c>
@@ -28759,7 +28788,7 @@
         <f t="shared" si="11"/>
         <v>-113</v>
       </c>
-      <c r="R65" s="117"/>
+      <c r="R65" s="109"/>
       <c r="S65" s="21">
         <f t="shared" si="20"/>
         <v>4.258178566006789</v>
@@ -28810,7 +28839,7 @@
       </c>
     </row>
     <row r="66" spans="3:34" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="100"/>
+      <c r="C66" s="111"/>
       <c r="D66" s="15">
         <v>50</v>
       </c>
@@ -28908,7 +28937,7 @@
       </c>
     </row>
     <row r="67" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C67" s="100"/>
+      <c r="C67" s="111"/>
       <c r="D67" s="22">
         <v>100</v>
       </c>
@@ -29004,7 +29033,7 @@
       </c>
     </row>
     <row r="68" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C68" s="100"/>
+      <c r="C68" s="111"/>
       <c r="D68" s="22">
         <v>150</v>
       </c>
@@ -29100,7 +29129,7 @@
       </c>
     </row>
     <row r="69" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C69" s="100"/>
+      <c r="C69" s="111"/>
       <c r="D69" s="22">
         <v>200</v>
       </c>
@@ -29196,7 +29225,7 @@
       </c>
     </row>
     <row r="70" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="101"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="28">
         <v>250</v>
       </c>
@@ -29241,7 +29270,7 @@
         <f t="shared" si="11"/>
         <v>-118</v>
       </c>
-      <c r="R70" s="117"/>
+      <c r="R70" s="109"/>
       <c r="S70" s="21">
         <f t="shared" si="20"/>
         <v>3.1488116652159741</v>
@@ -29292,7 +29321,7 @@
       </c>
     </row>
     <row r="71" spans="3:34" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="99">
+      <c r="C71" s="110">
         <v>750</v>
       </c>
       <c r="D71" s="15">
@@ -29392,7 +29421,7 @@
       </c>
     </row>
     <row r="72" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C72" s="100"/>
+      <c r="C72" s="111"/>
       <c r="D72" s="22">
         <v>100</v>
       </c>
@@ -29488,7 +29517,7 @@
       </c>
     </row>
     <row r="73" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C73" s="100"/>
+      <c r="C73" s="111"/>
       <c r="D73" s="22">
         <v>150</v>
       </c>
@@ -29584,7 +29613,7 @@
       </c>
     </row>
     <row r="74" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C74" s="100"/>
+      <c r="C74" s="111"/>
       <c r="D74" s="22">
         <v>200</v>
       </c>
@@ -29680,7 +29709,7 @@
       </c>
     </row>
     <row r="75" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="100"/>
+      <c r="C75" s="111"/>
       <c r="D75" s="28">
         <v>250</v>
       </c>
@@ -29725,7 +29754,7 @@
         <f t="shared" si="11"/>
         <v>-121.4</v>
       </c>
-      <c r="R75" s="117"/>
+      <c r="R75" s="109"/>
       <c r="S75" s="21">
         <f t="shared" si="20"/>
         <v>3.7160099569292488</v>
@@ -29776,7 +29805,7 @@
       </c>
     </row>
     <row r="76" spans="3:34" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="100"/>
+      <c r="C76" s="111"/>
       <c r="D76" s="15">
         <v>50</v>
       </c>
@@ -29874,7 +29903,7 @@
       </c>
     </row>
     <row r="77" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C77" s="100"/>
+      <c r="C77" s="111"/>
       <c r="D77" s="22">
         <v>100</v>
       </c>
@@ -29970,7 +29999,7 @@
       </c>
     </row>
     <row r="78" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C78" s="100"/>
+      <c r="C78" s="111"/>
       <c r="D78" s="22">
         <v>150</v>
       </c>
@@ -30066,7 +30095,7 @@
       </c>
     </row>
     <row r="79" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C79" s="100"/>
+      <c r="C79" s="111"/>
       <c r="D79" s="22">
         <v>200</v>
       </c>
@@ -30162,7 +30191,7 @@
       </c>
     </row>
     <row r="80" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="100"/>
+      <c r="C80" s="111"/>
       <c r="D80" s="28">
         <v>250</v>
       </c>
@@ -30207,7 +30236,7 @@
         <f t="shared" si="11"/>
         <v>-117.8</v>
       </c>
-      <c r="R80" s="117"/>
+      <c r="R80" s="109"/>
       <c r="S80" s="21">
         <f t="shared" si="20"/>
         <v>3.9046185088944227</v>
@@ -30258,7 +30287,7 @@
       </c>
     </row>
     <row r="81" spans="3:34" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="100"/>
+      <c r="C81" s="111"/>
       <c r="D81" s="15">
         <v>50</v>
       </c>
@@ -30356,7 +30385,7 @@
       </c>
     </row>
     <row r="82" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C82" s="100"/>
+      <c r="C82" s="111"/>
       <c r="D82" s="22">
         <v>100</v>
       </c>
@@ -30452,7 +30481,7 @@
       </c>
     </row>
     <row r="83" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C83" s="100"/>
+      <c r="C83" s="111"/>
       <c r="D83" s="22">
         <v>150</v>
       </c>
@@ -30548,7 +30577,7 @@
       </c>
     </row>
     <row r="84" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C84" s="100"/>
+      <c r="C84" s="111"/>
       <c r="D84" s="22">
         <v>200</v>
       </c>
@@ -30644,7 +30673,7 @@
       </c>
     </row>
     <row r="85" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="101"/>
+      <c r="C85" s="112"/>
       <c r="D85" s="28">
         <v>250</v>
       </c>
@@ -30689,7 +30718,7 @@
         <f t="shared" si="11"/>
         <v>-118.4</v>
       </c>
-      <c r="R85" s="117"/>
+      <c r="R85" s="109"/>
       <c r="S85" s="21">
         <f t="shared" si="20"/>
         <v>3.2649518330290865</v>
@@ -30740,7 +30769,7 @@
       </c>
     </row>
     <row r="86" spans="3:34" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="99">
+      <c r="C86" s="110">
         <v>1000</v>
       </c>
       <c r="D86" s="15">
@@ -30840,7 +30869,7 @@
       </c>
     </row>
     <row r="87" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C87" s="100"/>
+      <c r="C87" s="111"/>
       <c r="D87" s="22">
         <v>100</v>
       </c>
@@ -30936,7 +30965,7 @@
       </c>
     </row>
     <row r="88" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C88" s="100"/>
+      <c r="C88" s="111"/>
       <c r="D88" s="22">
         <v>150</v>
       </c>
@@ -31032,7 +31061,7 @@
       </c>
     </row>
     <row r="89" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C89" s="100"/>
+      <c r="C89" s="111"/>
       <c r="D89" s="22">
         <v>200</v>
       </c>
@@ -31128,7 +31157,7 @@
       </c>
     </row>
     <row r="90" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="100"/>
+      <c r="C90" s="111"/>
       <c r="D90" s="28">
         <v>250</v>
       </c>
@@ -31173,7 +31202,7 @@
         <f t="shared" si="11"/>
         <v>-122.4</v>
       </c>
-      <c r="R90" s="117"/>
+      <c r="R90" s="109"/>
       <c r="S90" s="21">
         <f t="shared" si="20"/>
         <v>5.160690845226009</v>
@@ -31224,7 +31253,7 @@
       </c>
     </row>
     <row r="91" spans="3:34" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="100"/>
+      <c r="C91" s="111"/>
       <c r="D91" s="15">
         <v>50</v>
       </c>
@@ -31322,7 +31351,7 @@
       </c>
     </row>
     <row r="92" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C92" s="100"/>
+      <c r="C92" s="111"/>
       <c r="D92" s="22">
         <v>100</v>
       </c>
@@ -31418,7 +31447,7 @@
       </c>
     </row>
     <row r="93" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C93" s="100"/>
+      <c r="C93" s="111"/>
       <c r="D93" s="22">
         <v>150</v>
       </c>
@@ -31514,7 +31543,7 @@
       </c>
     </row>
     <row r="94" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C94" s="100"/>
+      <c r="C94" s="111"/>
       <c r="D94" s="22">
         <v>200</v>
       </c>
@@ -31610,7 +31639,7 @@
       </c>
     </row>
     <row r="95" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="100"/>
+      <c r="C95" s="111"/>
       <c r="D95" s="28">
         <v>250</v>
       </c>
@@ -31655,7 +31684,7 @@
         <f t="shared" si="11"/>
         <v>-130.6</v>
       </c>
-      <c r="R95" s="117"/>
+      <c r="R95" s="109"/>
       <c r="S95" s="21">
         <f t="shared" si="20"/>
         <v>3.3692489519178381</v>
@@ -31706,7 +31735,7 @@
       </c>
     </row>
     <row r="96" spans="3:34" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="100"/>
+      <c r="C96" s="111"/>
       <c r="D96" s="15">
         <v>50</v>
       </c>
@@ -31804,7 +31833,7 @@
       </c>
     </row>
     <row r="97" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C97" s="100"/>
+      <c r="C97" s="111"/>
       <c r="D97" s="22">
         <v>100</v>
       </c>
@@ -31900,7 +31929,7 @@
       </c>
     </row>
     <row r="98" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C98" s="100"/>
+      <c r="C98" s="111"/>
       <c r="D98" s="22">
         <v>150</v>
       </c>
@@ -31996,7 +32025,7 @@
       </c>
     </row>
     <row r="99" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C99" s="100"/>
+      <c r="C99" s="111"/>
       <c r="D99" s="22">
         <v>200</v>
       </c>
@@ -32092,7 +32121,7 @@
       </c>
     </row>
     <row r="100" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="101"/>
+      <c r="C100" s="112"/>
       <c r="D100" s="28">
         <v>250</v>
       </c>
@@ -32137,7 +32166,7 @@
         <f t="shared" si="11"/>
         <v>-108.2</v>
       </c>
-      <c r="R100" s="117"/>
+      <c r="R100" s="109"/>
       <c r="S100" s="21">
         <f t="shared" si="20"/>
         <v>3.3004399009829042</v>
@@ -32188,7 +32217,7 @@
       </c>
     </row>
     <row r="101" spans="3:34" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="99">
+      <c r="C101" s="110">
         <v>1500</v>
       </c>
       <c r="D101" s="15">
@@ -32288,7 +32317,7 @@
       </c>
     </row>
     <row r="102" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C102" s="100"/>
+      <c r="C102" s="111"/>
       <c r="D102" s="22">
         <v>100</v>
       </c>
@@ -32385,7 +32414,7 @@
       </c>
     </row>
     <row r="103" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C103" s="100"/>
+      <c r="C103" s="111"/>
       <c r="D103" s="22">
         <v>150</v>
       </c>
@@ -32481,7 +32510,7 @@
       </c>
     </row>
     <row r="104" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C104" s="100"/>
+      <c r="C104" s="111"/>
       <c r="D104" s="22">
         <v>200</v>
       </c>
@@ -32577,7 +32606,7 @@
       </c>
     </row>
     <row r="105" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="100"/>
+      <c r="C105" s="111"/>
       <c r="D105" s="28">
         <v>250</v>
       </c>
@@ -32622,7 +32651,7 @@
         <f t="shared" si="11"/>
         <v>-124.2</v>
       </c>
-      <c r="R105" s="117"/>
+      <c r="R105" s="109"/>
       <c r="S105" s="21">
         <f t="shared" si="20"/>
         <v>4.1016545442051351</v>
@@ -32673,7 +32702,7 @@
       </c>
     </row>
     <row r="106" spans="3:34" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="100"/>
+      <c r="C106" s="111"/>
       <c r="D106" s="15">
         <v>50</v>
       </c>
@@ -32771,7 +32800,7 @@
       </c>
     </row>
     <row r="107" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C107" s="100"/>
+      <c r="C107" s="111"/>
       <c r="D107" s="22">
         <v>100</v>
       </c>
@@ -32867,7 +32896,7 @@
       </c>
     </row>
     <row r="108" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C108" s="100"/>
+      <c r="C108" s="111"/>
       <c r="D108" s="22">
         <v>150</v>
       </c>
@@ -32963,7 +32992,7 @@
       </c>
     </row>
     <row r="109" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C109" s="100"/>
+      <c r="C109" s="111"/>
       <c r="D109" s="22">
         <v>200</v>
       </c>
@@ -33059,7 +33088,7 @@
       </c>
     </row>
     <row r="110" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="100"/>
+      <c r="C110" s="111"/>
       <c r="D110" s="28">
         <v>250</v>
       </c>
@@ -33104,7 +33133,7 @@
         <f t="shared" si="11"/>
         <v>-127.4</v>
       </c>
-      <c r="R110" s="117"/>
+      <c r="R110" s="109"/>
       <c r="S110" s="21">
         <f t="shared" si="20"/>
         <v>0.57026967304953147</v>
@@ -33155,11 +33184,11 @@
       </c>
     </row>
     <row r="111" spans="3:34" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="100"/>
+      <c r="C111" s="111"/>
       <c r="D111" s="15">
         <v>50</v>
       </c>
-      <c r="E111" s="126" t="s">
+      <c r="E111" s="132" t="s">
         <v>37</v>
       </c>
       <c r="F111" s="121"/>
@@ -33174,7 +33203,7 @@
       <c r="O111" s="121"/>
       <c r="P111" s="121"/>
       <c r="Q111" s="122"/>
-      <c r="R111" s="132">
+      <c r="R111" s="138">
         <v>8</v>
       </c>
       <c r="S111" s="21" t="e">
@@ -33227,24 +33256,24 @@
       </c>
     </row>
     <row r="112" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C112" s="100"/>
+      <c r="C112" s="111"/>
       <c r="D112" s="22">
         <v>100</v>
       </c>
-      <c r="E112" s="127"/>
-      <c r="F112" s="128"/>
-      <c r="G112" s="128"/>
-      <c r="H112" s="128"/>
-      <c r="I112" s="128"/>
-      <c r="J112" s="128"/>
-      <c r="K112" s="128"/>
-      <c r="L112" s="128"/>
-      <c r="M112" s="128"/>
-      <c r="N112" s="128"/>
-      <c r="O112" s="128"/>
-      <c r="P112" s="128"/>
-      <c r="Q112" s="129"/>
-      <c r="R112" s="129"/>
+      <c r="E112" s="133"/>
+      <c r="F112" s="134"/>
+      <c r="G112" s="134"/>
+      <c r="H112" s="134"/>
+      <c r="I112" s="134"/>
+      <c r="J112" s="134"/>
+      <c r="K112" s="134"/>
+      <c r="L112" s="134"/>
+      <c r="M112" s="134"/>
+      <c r="N112" s="134"/>
+      <c r="O112" s="134"/>
+      <c r="P112" s="134"/>
+      <c r="Q112" s="135"/>
+      <c r="R112" s="135"/>
       <c r="S112" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
@@ -33295,24 +33324,24 @@
       </c>
     </row>
     <row r="113" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C113" s="100"/>
+      <c r="C113" s="111"/>
       <c r="D113" s="22">
         <v>150</v>
       </c>
-      <c r="E113" s="127"/>
-      <c r="F113" s="128"/>
-      <c r="G113" s="128"/>
-      <c r="H113" s="128"/>
-      <c r="I113" s="128"/>
-      <c r="J113" s="128"/>
-      <c r="K113" s="128"/>
-      <c r="L113" s="128"/>
-      <c r="M113" s="128"/>
-      <c r="N113" s="128"/>
-      <c r="O113" s="128"/>
-      <c r="P113" s="128"/>
-      <c r="Q113" s="129"/>
-      <c r="R113" s="129"/>
+      <c r="E113" s="133"/>
+      <c r="F113" s="134"/>
+      <c r="G113" s="134"/>
+      <c r="H113" s="134"/>
+      <c r="I113" s="134"/>
+      <c r="J113" s="134"/>
+      <c r="K113" s="134"/>
+      <c r="L113" s="134"/>
+      <c r="M113" s="134"/>
+      <c r="N113" s="134"/>
+      <c r="O113" s="134"/>
+      <c r="P113" s="134"/>
+      <c r="Q113" s="135"/>
+      <c r="R113" s="135"/>
       <c r="S113" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
@@ -33363,24 +33392,24 @@
       </c>
     </row>
     <row r="114" spans="3:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C114" s="100"/>
+      <c r="C114" s="111"/>
       <c r="D114" s="22">
         <v>200</v>
       </c>
-      <c r="E114" s="127"/>
-      <c r="F114" s="128"/>
-      <c r="G114" s="128"/>
-      <c r="H114" s="128"/>
-      <c r="I114" s="128"/>
-      <c r="J114" s="128"/>
-      <c r="K114" s="128"/>
-      <c r="L114" s="128"/>
-      <c r="M114" s="128"/>
-      <c r="N114" s="128"/>
-      <c r="O114" s="128"/>
-      <c r="P114" s="128"/>
-      <c r="Q114" s="129"/>
-      <c r="R114" s="129"/>
+      <c r="E114" s="133"/>
+      <c r="F114" s="134"/>
+      <c r="G114" s="134"/>
+      <c r="H114" s="134"/>
+      <c r="I114" s="134"/>
+      <c r="J114" s="134"/>
+      <c r="K114" s="134"/>
+      <c r="L114" s="134"/>
+      <c r="M114" s="134"/>
+      <c r="N114" s="134"/>
+      <c r="O114" s="134"/>
+      <c r="P114" s="134"/>
+      <c r="Q114" s="135"/>
+      <c r="R114" s="135"/>
       <c r="S114" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
@@ -33431,24 +33460,24 @@
       </c>
     </row>
     <row r="115" spans="3:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="101"/>
+      <c r="C115" s="112"/>
       <c r="D115" s="28">
         <v>250</v>
       </c>
       <c r="E115" s="125"/>
-      <c r="F115" s="130"/>
-      <c r="G115" s="130"/>
-      <c r="H115" s="130"/>
-      <c r="I115" s="130"/>
-      <c r="J115" s="130"/>
-      <c r="K115" s="130"/>
-      <c r="L115" s="130"/>
-      <c r="M115" s="130"/>
-      <c r="N115" s="130"/>
-      <c r="O115" s="130"/>
-      <c r="P115" s="130"/>
-      <c r="Q115" s="131"/>
-      <c r="R115" s="131"/>
+      <c r="F115" s="136"/>
+      <c r="G115" s="136"/>
+      <c r="H115" s="136"/>
+      <c r="I115" s="136"/>
+      <c r="J115" s="136"/>
+      <c r="K115" s="136"/>
+      <c r="L115" s="136"/>
+      <c r="M115" s="136"/>
+      <c r="N115" s="136"/>
+      <c r="O115" s="136"/>
+      <c r="P115" s="136"/>
+      <c r="Q115" s="137"/>
+      <c r="R115" s="137"/>
       <c r="S115" s="67" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
@@ -33500,31 +33529,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="R41:R45"/>
-    <mergeCell ref="R46:R50"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="C6:C20"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="R6:R10"/>
-    <mergeCell ref="R21:R25"/>
-    <mergeCell ref="R11:R15"/>
-    <mergeCell ref="R16:R20"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="C86:C100"/>
-    <mergeCell ref="C101:C115"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="C41:C55"/>
-    <mergeCell ref="C56:C70"/>
-    <mergeCell ref="C71:C85"/>
     <mergeCell ref="T39:T40"/>
     <mergeCell ref="E111:Q115"/>
     <mergeCell ref="R111:R115"/>
@@ -33541,6 +33545,31 @@
     <mergeCell ref="R101:R105"/>
     <mergeCell ref="R106:R110"/>
     <mergeCell ref="E39:J39"/>
+    <mergeCell ref="C86:C100"/>
+    <mergeCell ref="C101:C115"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="C41:C55"/>
+    <mergeCell ref="C56:C70"/>
+    <mergeCell ref="C71:C85"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="R41:R45"/>
+    <mergeCell ref="R46:R50"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="C6:C20"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="R6:R10"/>
+    <mergeCell ref="R21:R25"/>
+    <mergeCell ref="R11:R15"/>
+    <mergeCell ref="R16:R20"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33552,7 +33581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64728FDA-69D4-482E-8DF9-1FBFEF1704A3}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X118" sqref="X118"/>
     </sheetView>
   </sheetViews>
